--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Sfrp1</t>
+  </si>
+  <si>
+    <t>Fzd2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sfrp1</t>
-  </si>
-  <si>
-    <t>Fzd2</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -540,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.381694</v>
+        <v>0.2675626666666667</v>
       </c>
       <c r="H2">
-        <v>1.145082</v>
+        <v>0.802688</v>
       </c>
       <c r="I2">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="J2">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N2">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O2">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P2">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q2">
-        <v>0.03058679422733333</v>
+        <v>0.08048035288177778</v>
       </c>
       <c r="R2">
-        <v>0.275281148046</v>
+        <v>0.7243231759359999</v>
       </c>
       <c r="S2">
-        <v>0.0001555679237831671</v>
+        <v>0.0004731811130084563</v>
       </c>
       <c r="T2">
-        <v>0.000155567923783167</v>
+        <v>0.0004731811130084562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.381694</v>
+        <v>0.2675626666666667</v>
       </c>
       <c r="H3">
-        <v>1.145082</v>
+        <v>0.802688</v>
       </c>
       <c r="I3">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="J3">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>22.943946</v>
       </c>
       <c r="O3">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P3">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q3">
-        <v>2.919188841508</v>
+        <v>2.046314458538667</v>
       </c>
       <c r="R3">
-        <v>26.272699573572</v>
+        <v>18.416830126848</v>
       </c>
       <c r="S3">
-        <v>0.01484732737367296</v>
+        <v>0.01203122648429464</v>
       </c>
       <c r="T3">
-        <v>0.01484732737367296</v>
+        <v>0.01203122648429463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.381694</v>
+        <v>0.2675626666666667</v>
       </c>
       <c r="H4">
-        <v>1.145082</v>
+        <v>0.802688</v>
       </c>
       <c r="I4">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="J4">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N4">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O4">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P4">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q4">
-        <v>0.001732636297333333</v>
+        <v>0.0002405388373333334</v>
       </c>
       <c r="R4">
-        <v>0.015593726676</v>
+        <v>0.002164849536</v>
       </c>
       <c r="S4">
-        <v>8.812385810822532E-06</v>
+        <v>1.414238763817812E-06</v>
       </c>
       <c r="T4">
-        <v>8.81238581082253E-06</v>
+        <v>1.414238763817812E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.381694</v>
+        <v>0.2675626666666667</v>
       </c>
       <c r="H5">
-        <v>1.145082</v>
+        <v>0.802688</v>
       </c>
       <c r="I5">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="J5">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N5">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O5">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P5">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q5">
-        <v>0.810550492334</v>
+        <v>0.1479259445191111</v>
       </c>
       <c r="R5">
-        <v>7.294954431006</v>
+        <v>1.331333500672</v>
       </c>
       <c r="S5">
-        <v>0.004122552245149678</v>
+        <v>0.000869724852886778</v>
       </c>
       <c r="T5">
-        <v>0.004122552245149678</v>
+        <v>0.0008697248528867777</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.381694</v>
+        <v>0.2675626666666667</v>
       </c>
       <c r="H6">
-        <v>1.145082</v>
+        <v>0.802688</v>
       </c>
       <c r="I6">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="J6">
-        <v>0.01915224902469766</v>
+        <v>0.01337792263105189</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N6">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O6">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P6">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q6">
-        <v>0.003536903835333333</v>
+        <v>0.0004041088142222222</v>
       </c>
       <c r="R6">
-        <v>0.031832134518</v>
+        <v>0.003636979328</v>
       </c>
       <c r="S6">
-        <v>1.798909628102919E-05</v>
+        <v>2.37594209820486E-06</v>
       </c>
       <c r="T6">
-        <v>1.798909628102919E-05</v>
+        <v>2.37594209820486E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +859,10 @@
         <v>56.855887</v>
       </c>
       <c r="I7">
-        <v>0.9509520770949769</v>
+        <v>0.9475831922313891</v>
       </c>
       <c r="J7">
-        <v>0.9509520770949768</v>
+        <v>0.947583192231389</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N7">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O7">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P7">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q7">
-        <v>1.518702866940111</v>
+        <v>5.700573384884889</v>
       </c>
       <c r="R7">
-        <v>13.668325802461</v>
+        <v>51.305160463964</v>
       </c>
       <c r="S7">
-        <v>0.00772429598530093</v>
+        <v>0.03351630009635503</v>
       </c>
       <c r="T7">
-        <v>0.007724295985300928</v>
+        <v>0.03351630009635502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +921,10 @@
         <v>56.855887</v>
       </c>
       <c r="I8">
-        <v>0.9509520770949769</v>
+        <v>0.9475831922313891</v>
       </c>
       <c r="J8">
-        <v>0.9509520770949768</v>
+        <v>0.947583192231389</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +939,10 @@
         <v>22.943946</v>
       </c>
       <c r="O8">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P8">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q8">
         <v>144.9442667900113</v>
@@ -948,10 +951,10 @@
         <v>1304.498401110102</v>
       </c>
       <c r="S8">
-        <v>0.7372030714041062</v>
+        <v>0.852194194335113</v>
       </c>
       <c r="T8">
-        <v>0.737203071404106</v>
+        <v>0.8521941943351129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +968,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +983,10 @@
         <v>56.855887</v>
       </c>
       <c r="I9">
-        <v>0.9509520770949769</v>
+        <v>0.9475831922313891</v>
       </c>
       <c r="J9">
-        <v>0.9509520770949768</v>
+        <v>0.947583192231389</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N9">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O9">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P9">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q9">
-        <v>0.08602927435177779</v>
+        <v>0.01703781413766667</v>
       </c>
       <c r="R9">
-        <v>0.7742634691660001</v>
+        <v>0.153340327239</v>
       </c>
       <c r="S9">
-        <v>0.0004375547007642503</v>
+        <v>0.0001001731673410406</v>
       </c>
       <c r="T9">
-        <v>0.0004375547007642502</v>
+        <v>0.0001001731673410406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1045,10 @@
         <v>56.855887</v>
       </c>
       <c r="I10">
-        <v>0.9509520770949769</v>
+        <v>0.9475831922313891</v>
       </c>
       <c r="J10">
-        <v>0.9509520770949768</v>
+        <v>0.947583192231389</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N10">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O10">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P10">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q10">
-        <v>40.24564808453567</v>
+        <v>10.47787033809756</v>
       </c>
       <c r="R10">
-        <v>362.2108327608211</v>
+        <v>94.300833042878</v>
       </c>
       <c r="S10">
-        <v>0.2046939560676235</v>
+        <v>0.06160423222574933</v>
       </c>
       <c r="T10">
-        <v>0.2046939560676234</v>
+        <v>0.06160423222574931</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1107,10 @@
         <v>56.855887</v>
       </c>
       <c r="I11">
-        <v>0.9509520770949769</v>
+        <v>0.9475831922313891</v>
       </c>
       <c r="J11">
-        <v>0.9509520770949768</v>
+        <v>0.947583192231389</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N11">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O11">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P11">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q11">
-        <v>0.1756152003014445</v>
+        <v>0.02862378044411111</v>
       </c>
       <c r="R11">
-        <v>1.580536802713</v>
+        <v>0.257614023997</v>
       </c>
       <c r="S11">
-        <v>0.0008931989371820674</v>
+        <v>0.000168292406830647</v>
       </c>
       <c r="T11">
-        <v>0.0008931989371820672</v>
+        <v>0.000168292406830647</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1157,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.04782733333333333</v>
+        <v>0.7737046666666667</v>
       </c>
       <c r="H12">
-        <v>0.143482</v>
+        <v>2.321114</v>
       </c>
       <c r="I12">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050454</v>
       </c>
       <c r="J12">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050453</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N12">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O12">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P12">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q12">
-        <v>0.003832611471777777</v>
+        <v>0.2327231424897778</v>
       </c>
       <c r="R12">
-        <v>0.034493503246</v>
+        <v>2.094508282408</v>
       </c>
       <c r="S12">
-        <v>1.949309904465914E-05</v>
+        <v>0.001368286689148847</v>
       </c>
       <c r="T12">
-        <v>1.949309904465913E-05</v>
+        <v>0.001368286689148847</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1219,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.04782733333333333</v>
+        <v>0.7737046666666667</v>
       </c>
       <c r="H13">
-        <v>0.143482</v>
+        <v>2.321114</v>
       </c>
       <c r="I13">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050454</v>
       </c>
       <c r="J13">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050453</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1249,22 @@
         <v>22.943946</v>
       </c>
       <c r="O13">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P13">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q13">
-        <v>0.3657825844413333</v>
+        <v>5.917279363982667</v>
       </c>
       <c r="R13">
-        <v>3.292043259972</v>
+        <v>53.25551427584401</v>
       </c>
       <c r="S13">
-        <v>0.001860411941004525</v>
+        <v>0.03479041449463186</v>
       </c>
       <c r="T13">
-        <v>0.001860411941004525</v>
+        <v>0.03479041449463185</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1278,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04782733333333333</v>
+        <v>0.7737046666666667</v>
       </c>
       <c r="H14">
-        <v>0.143482</v>
+        <v>2.321114</v>
       </c>
       <c r="I14">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050454</v>
       </c>
       <c r="J14">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050453</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N14">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O14">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P14">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q14">
-        <v>0.0002171042084444445</v>
+        <v>0.0006955604953333334</v>
       </c>
       <c r="R14">
-        <v>0.001953937876</v>
+        <v>0.006260044458000001</v>
       </c>
       <c r="S14">
-        <v>1.104216764308965E-06</v>
+        <v>4.089520952151044E-06</v>
       </c>
       <c r="T14">
-        <v>1.104216764308965E-06</v>
+        <v>4.089520952151044E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1340,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04782733333333333</v>
+        <v>0.7737046666666667</v>
       </c>
       <c r="H15">
-        <v>0.143482</v>
+        <v>2.321114</v>
       </c>
       <c r="I15">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050454</v>
       </c>
       <c r="J15">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050453</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N15">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O15">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P15">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q15">
-        <v>0.1015642598006667</v>
+        <v>0.4277539726351111</v>
       </c>
       <c r="R15">
-        <v>0.914078338206</v>
+        <v>3.849785753716</v>
       </c>
       <c r="S15">
-        <v>0.0005165674084812845</v>
+        <v>0.002514962889919173</v>
       </c>
       <c r="T15">
-        <v>0.0005165674084812844</v>
+        <v>0.002514962889919172</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04782733333333333</v>
+        <v>0.7737046666666667</v>
       </c>
       <c r="H16">
-        <v>0.143482</v>
+        <v>2.321114</v>
       </c>
       <c r="I16">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050454</v>
       </c>
       <c r="J16">
-        <v>0.002399830749729425</v>
+        <v>0.03868462405050453</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N16">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O16">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P16">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q16">
-        <v>0.0004431840131111111</v>
+        <v>0.001168551948222222</v>
       </c>
       <c r="R16">
-        <v>0.003988656118</v>
+        <v>0.010516967534</v>
       </c>
       <c r="S16">
-        <v>2.254084434647152E-06</v>
+        <v>6.870455852501438E-06</v>
       </c>
       <c r="T16">
-        <v>2.254084434647152E-06</v>
+        <v>6.870455852501438E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5479773333333333</v>
+        <v>0.007085333333333333</v>
       </c>
       <c r="H17">
-        <v>1.643932</v>
+        <v>0.021256</v>
       </c>
       <c r="I17">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545456</v>
       </c>
       <c r="J17">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545455</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.08013433333333332</v>
+        <v>0.3007906666666667</v>
       </c>
       <c r="N17">
-        <v>0.240403</v>
+        <v>0.902372</v>
       </c>
       <c r="O17">
-        <v>0.008122697422248189</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="P17">
-        <v>0.008122697422248188</v>
+        <v>0.03537029821880876</v>
       </c>
       <c r="Q17">
-        <v>0.04391179828844444</v>
+        <v>0.002131202136888889</v>
       </c>
       <c r="R17">
-        <v>0.3952061845959999</v>
+        <v>0.019180819232</v>
       </c>
       <c r="S17">
-        <v>0.0002233404141194337</v>
+        <v>1.253032029643865E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002233404141194336</v>
+        <v>1.253032029643865E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5479773333333333</v>
+        <v>0.007085333333333333</v>
       </c>
       <c r="H18">
-        <v>1.643932</v>
+        <v>0.021256</v>
       </c>
       <c r="I18">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545456</v>
       </c>
       <c r="J18">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545455</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1559,22 @@
         <v>22.943946</v>
       </c>
       <c r="O18">
-        <v>0.7752263117781462</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="P18">
-        <v>0.775226311778146</v>
+        <v>0.899334434508434</v>
       </c>
       <c r="Q18">
-        <v>4.190920781741333</v>
+        <v>0.05418850179733333</v>
       </c>
       <c r="R18">
-        <v>37.718287035672</v>
+        <v>0.487696516176</v>
       </c>
       <c r="S18">
-        <v>0.02131550105936251</v>
+        <v>0.0003185991943945429</v>
       </c>
       <c r="T18">
-        <v>0.0213155010593625</v>
+        <v>0.0003185991943945428</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1588,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5479773333333333</v>
+        <v>0.007085333333333333</v>
       </c>
       <c r="H19">
-        <v>1.643932</v>
+        <v>0.021256</v>
       </c>
       <c r="I19">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545456</v>
       </c>
       <c r="J19">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545455</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.004539333333333334</v>
+        <v>0.0008990000000000001</v>
       </c>
       <c r="N19">
-        <v>0.013618</v>
+        <v>0.002697</v>
       </c>
       <c r="O19">
-        <v>0.0004601227667548901</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="P19">
-        <v>0.00046012276675489</v>
+        <v>0.0001057143775473167</v>
       </c>
       <c r="Q19">
-        <v>0.002487451775111111</v>
+        <v>6.369714666666667E-06</v>
       </c>
       <c r="R19">
-        <v>0.022387065976</v>
+        <v>5.7327432E-05</v>
       </c>
       <c r="S19">
-        <v>1.265146341550833E-05</v>
+        <v>3.745049030720706E-08</v>
       </c>
       <c r="T19">
-        <v>1.265146341550832E-05</v>
+        <v>3.745049030720705E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1650,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.5479773333333333</v>
+        <v>0.007085333333333333</v>
       </c>
       <c r="H20">
-        <v>1.643932</v>
+        <v>0.021256</v>
       </c>
       <c r="I20">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545456</v>
       </c>
       <c r="J20">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545455</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.123561</v>
+        <v>0.5528646666666667</v>
       </c>
       <c r="N20">
-        <v>6.370683000000001</v>
+        <v>1.658594</v>
       </c>
       <c r="O20">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304938</v>
       </c>
       <c r="P20">
-        <v>0.2152515999470072</v>
+        <v>0.06501195117304936</v>
       </c>
       <c r="Q20">
-        <v>1.163663293950667</v>
+        <v>0.003917230451555556</v>
       </c>
       <c r="R20">
-        <v>10.472969645556</v>
+        <v>0.035255074064</v>
       </c>
       <c r="S20">
-        <v>0.005918524225752743</v>
+        <v>2.303120449410151E-05</v>
       </c>
       <c r="T20">
-        <v>0.005918524225752741</v>
+        <v>2.30312044941015E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1712,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.5479773333333333</v>
+        <v>0.007085333333333333</v>
       </c>
       <c r="H21">
-        <v>1.643932</v>
+        <v>0.021256</v>
       </c>
       <c r="I21">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545456</v>
       </c>
       <c r="J21">
-        <v>0.02749584313059612</v>
+        <v>0.0003542610870545455</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.009266333333333333</v>
+        <v>0.001510333333333333</v>
       </c>
       <c r="N21">
-        <v>0.027799</v>
+        <v>0.004531</v>
       </c>
       <c r="O21">
-        <v>0.0009392680858436767</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="P21">
-        <v>0.0009392680858436766</v>
+        <v>0.0001776017221605087</v>
       </c>
       <c r="Q21">
-        <v>0.005077740629777778</v>
+        <v>1.070121511111111E-05</v>
       </c>
       <c r="R21">
-        <v>0.045699665668</v>
+        <v>9.6310936E-05</v>
       </c>
       <c r="S21">
-        <v>2.582596794593303E-05</v>
+        <v>6.291737915534118E-08</v>
       </c>
       <c r="T21">
-        <v>2.582596794593302E-05</v>
+        <v>6.291737915534118E-08</v>
       </c>
     </row>
   </sheetData>
